--- a/Результаты.xlsx
+++ b/Результаты.xlsx
@@ -9,18 +9,26 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Диаграмма1" sheetId="2" r:id="rId1"/>
-    <sheet name="jmh-result" sheetId="1" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="23">
+  <si>
+    <t>Data</t>
+  </si>
   <si>
     <t>PlainData</t>
   </si>
@@ -34,10 +42,19 @@
     <t>BigNestedData</t>
   </si>
   <si>
-    <t>Serialization</t>
+    <t>Deserialize</t>
   </si>
   <si>
-    <t>Deserialization</t>
+    <t>Serialize</t>
+  </si>
+  <si>
+    <t>Score, ops/s</t>
+  </si>
+  <si>
+    <t>Size, byte</t>
+  </si>
+  <si>
+    <t>Binary</t>
   </si>
   <si>
     <t>Json</t>
@@ -55,20 +72,35 @@
     <t>Yaml</t>
   </si>
   <si>
-    <t>LOG10(Deserialization)</t>
+    <t>deserialize</t>
   </si>
   <si>
-    <t>LOG10(Serialization)</t>
+    <t>serialize</t>
+  </si>
+  <si>
+    <t>Plain</t>
+  </si>
+  <si>
+    <t>Small</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Big</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,333 +109,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri Light"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -411,226 +126,15 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="170" fontId="1" fillId="14" borderId="0" xfId="23" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="18" borderId="0" xfId="27" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="22" borderId="0" xfId="31" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="26" borderId="0" xfId="35" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="27" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="31" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" xfId="35" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="23" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% — акцент1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% — акцент2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% — акцент3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% — акцент4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% — акцент5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% — акцент6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% — акцент1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% — акцент2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% — акцент3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% — акцент4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% — акцент5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% — акцент6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% — акцент1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% — акцент2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% — акцент3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% — акцент4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% — акцент5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% — акцент6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Акцент1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Акцент2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Акцент3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Акцент4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Акцент5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Акцент6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Ввод " xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Вывод" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Вычисление" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Заголовок 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Заголовок 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Заголовок 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Заголовок 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Итог" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Контрольная ячейка" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Название" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Нейтральный" xfId="8" builtinId="28" customBuiltin="1"/>
+  <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Плохой" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Пояснение" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Примечание" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Связанная ячейка" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Текст предупреждения" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Хороший" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -660,6 +164,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Нормализованная</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> пропускная способность ДЕСЕРИАЛИЗАЦИИ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -702,11 +235,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$17</c:f>
+              <c:f>Лист2!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PlainData</c:v>
+                  <c:v>Plain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,22 +256,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$3:$G$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -746,24 +282,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$17:$F$17</c:f>
+              <c:f>Лист2!$H$3:$H$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.1402477388451286</c:v>
+                  <c:v>4.6446926217453584</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7875551459164889</c:v>
+                  <c:v>6.1319512709960922</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3230070018562641</c:v>
+                  <c:v>5.8084939171351895</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4551203614881949</c:v>
+                  <c:v>6.3277267098393946</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9253267932073337</c:v>
+                  <c:v>5.4705848662170284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9752232879153775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -774,11 +313,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$18</c:f>
+              <c:f>Лист2!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SmallNestedData</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -795,22 +334,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$3:$G$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -818,24 +360,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$18:$F$18</c:f>
+              <c:f>Лист2!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.1238834734357619</c:v>
+                  <c:v>4.4295822422253908</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7532428045990622</c:v>
+                  <c:v>5.1178948692646191</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2946167011084109</c:v>
+                  <c:v>4.7675256606845231</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6270391325360345</c:v>
+                  <c:v>5.2841737743477655</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9993164946109072</c:v>
+                  <c:v>4.6365810841453019</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.0129946806137902</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -846,11 +391,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$19</c:f>
+              <c:f>Лист2!$J$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumNestedData</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -867,22 +412,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$3:$G$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -890,24 +438,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$19:$F$19</c:f>
+              <c:f>Лист2!$J$3:$J$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1361336149819152</c:v>
+                  <c:v>3.9089777439263091</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7431978185447057</c:v>
+                  <c:v>4.1157416454802016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2601265998883511</c:v>
+                  <c:v>3.7543223384322464</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6460104438589656</c:v>
+                  <c:v>4.2854904720198608</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0283569092317988</c:v>
+                  <c:v>3.6460561515891485</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.031539338866986</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -918,11 +469,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$20</c:f>
+              <c:f>Лист2!$K$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BigNestedData</c:v>
+                  <c:v>Big</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -939,22 +490,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$3:$G$8</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -962,24 +516,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$20:$F$20</c:f>
+              <c:f>Лист2!$K$3:$K$8</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1226811627984103</c:v>
+                  <c:v>3.0438505356191099</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7527468617688453</c:v>
+                  <c:v>3.1187295328988132</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.267627936900511</c:v>
+                  <c:v>2.767343648562778</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6311494754004849</c:v>
+                  <c:v>3.2820998300002455</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9943879848552091</c:v>
+                  <c:v>2.657278682497743</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9961218580593034</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -995,11 +552,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="360972576"/>
-        <c:axId val="360975712"/>
+        <c:axId val="355922296"/>
+        <c:axId val="355921904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="360972576"/>
+        <c:axId val="355922296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1042,7 +599,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360975712"/>
+        <c:crossAx val="355921904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1050,7 +607,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="360975712"/>
+        <c:axId val="355921904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1070,7 +627,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1101,7 +658,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="360972576"/>
+        <c:crossAx val="355922296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1174,6 +731,11 @@
       <a:endParaRPr lang="ru-RU"/>
     </a:p>
   </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
 </c:chartSpace>
 </file>
 
@@ -1211,14 +773,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Логарифмированные данные пропускной</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Нормализованная пропускная способность СЕРИАЛИЗАЦИИ</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> способности десериализации</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1264,11 +826,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$17</c:f>
+              <c:f>Лист2!$H$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PlainData</c:v>
+                  <c:v>Plain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1285,22 +847,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$11:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1308,24 +873,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$17:$F$17</c:f>
+              <c:f>Лист2!$H$11:$H$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.1402477388451286</c:v>
+                  <c:v>5.4485499720260613</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.7875551459164889</c:v>
+                  <c:v>6.3413108960896629</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.3230070018562641</c:v>
+                  <c:v>5.9175198882954216</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.4551203614881949</c:v>
+                  <c:v>6.5622033066755083</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9253267932073337</c:v>
+                  <c:v>5.981580176556994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.1761971358293462</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,11 +904,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$18</c:f>
+              <c:f>Лист2!$I$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SmallNestedData</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1357,22 +925,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$11:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1380,24 +951,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$18:$F$18</c:f>
+              <c:f>Лист2!$I$11:$I$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.1238834734357619</c:v>
+                  <c:v>4.9571260357860973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.7532428045990622</c:v>
+                  <c:v>5.3712966567059102</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.2946167011084109</c:v>
+                  <c:v>4.9005483091081379</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.6270391325360345</c:v>
+                  <c:v>5.5878242842602468</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9993164946109072</c:v>
+                  <c:v>4.999524795665474</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1662181252222226</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1408,11 +982,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$19</c:f>
+              <c:f>Лист2!$J$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumNestedData</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1429,22 +1003,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$11:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1452,24 +1029,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$19:$F$19</c:f>
+              <c:f>Лист2!$J$11:$J$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.1361336149819152</c:v>
+                  <c:v>4.0564672888204338</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.7431978185447057</c:v>
+                  <c:v>4.3701036198760539</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.2601265998883511</c:v>
+                  <c:v>3.8887099866385841</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.6460104438589656</c:v>
+                  <c:v>4.5549028449500684</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.0283569092317988</c:v>
+                  <c:v>4.0116063443543837</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.1411260485137396</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1480,11 +1060,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$20</c:f>
+              <c:f>Лист2!$K$10</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BigNestedData</c:v>
+                  <c:v>Big</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1501,22 +1081,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$16:$F$16</c:f>
+              <c:f>Лист2!$G$11:$G$16</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1524,24 +1107,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$20:$F$20</c:f>
+              <c:f>Лист2!$K$11:$K$16</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.1226811627984103</c:v>
+                  <c:v>3.0538529488935557</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7527468617688453</c:v>
+                  <c:v>3.3539137316532051</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.267627936900511</c:v>
+                  <c:v>2.8911314060568452</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.6311494754004849</c:v>
+                  <c:v>3.5405225489810399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9943879848552091</c:v>
+                  <c:v>3.0086555194924287</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.1406651399767358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1557,11 +1143,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="426180120"/>
-        <c:axId val="426178160"/>
+        <c:axId val="407312168"/>
+        <c:axId val="407311384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="426180120"/>
+        <c:axId val="407312168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1604,7 +1190,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426178160"/>
+        <c:crossAx val="407311384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1612,7 +1198,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="426178160"/>
+        <c:axId val="407311384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1632,7 +1218,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1663,7 +1249,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="426180120"/>
+        <c:crossAx val="407312168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1778,18 +1364,22 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="ru-RU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>Логарифмированные данные пропускной способности сериализации</a:t>
+              <a:t>Нормализованный размер сериализованных данных</a:t>
             </a:r>
-            <a:endParaRPr lang="ru-RU">
-              <a:effectLst/>
-            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31223600174978128"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1831,11 +1421,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$24</c:f>
+              <c:f>Лист2!$H$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PlainData</c:v>
+                  <c:v>Plain</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1852,22 +1442,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$23:$F$23</c:f>
+              <c:f>Лист2!$G$19:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1875,24 +1468,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$24:$F$24</c:f>
+              <c:f>Лист2!$H$19:$H$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6.3500632064600762</c:v>
+                  <c:v>2.858537197569639</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8926034094120752</c:v>
+                  <c:v>2.2405492482825999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.5549739199693935</c:v>
+                  <c:v>2.1238516409670858</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9670503617428281</c:v>
+                  <c:v>1.8633228601204559</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.1755562926455587</c:v>
+                  <c:v>2.4941545940184429</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2329961103921536</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1903,11 +1499,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$25</c:f>
+              <c:f>Лист2!$I$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SmallNestedData</c:v>
+                  <c:v>Small</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1924,22 +1520,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$23:$F$23</c:f>
+              <c:f>Лист2!$G$19:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -1947,24 +1546,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$25:$F$25</c:f>
+              <c:f>Лист2!$I$19:$I$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.3813835685019642</c:v>
+                  <c:v>3.2214142378423385</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.8797515269370173</c:v>
+                  <c:v>3.2862318540285531</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5706515144092981</c:v>
+                  <c:v>3.1670217957902564</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.9766286183151616</c:v>
+                  <c:v>2.9153998352122699</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.1675172646973992</c:v>
+                  <c:v>3.5259513412480126</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3111178426625059</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1975,11 +1577,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$26</c:f>
+              <c:f>Лист2!$J$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>MediumNestedData</c:v>
+                  <c:v>Medium</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1996,22 +1598,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$23:$F$23</c:f>
+              <c:f>Лист2!$G$19:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -2019,24 +1624,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$26:$F$26</c:f>
+              <c:f>Лист2!$J$19:$J$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>4.3579476374322299</c:v>
+                  <c:v>3.9764416893788446</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.8508499059549797</c:v>
+                  <c:v>4.2907911833827592</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.5167547017863061</c:v>
+                  <c:v>4.1714339009430086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.9818842883157437</c:v>
+                  <c:v>3.9208013818256542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1434505058001467</c:v>
+                  <c:v>4.5305966591759805</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.3586580686195493</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,11 +1655,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'jmh-result'!$A$27</c:f>
+              <c:f>Лист2!$K$18</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>BigNestedData</c:v>
+                  <c:v>Big</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2068,22 +1676,25 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'jmh-result'!$B$23:$F$23</c:f>
+              <c:f>Лист2!$G$19:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>Binary</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>Json</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>MsgPack</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Protobuff</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Xml</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>Yaml</c:v>
                 </c:pt>
               </c:strCache>
@@ -2091,24 +1702,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'jmh-result'!$B$27:$F$27</c:f>
+              <c:f>Лист2!$K$19:$K$24</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.3642692412129791</c:v>
+                  <c:v>4.9328743889977451</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.873823813866792</c:v>
+                  <c:v>5.2912467157104404</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.5285576607114582</c:v>
+                  <c:v>5.1718755796874456</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.9801282048915398</c:v>
+                  <c:v>4.9213378597892818</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1755748278781102</c:v>
+                  <c:v>5.5310533554832988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.3995854694129859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2124,11 +1738,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="355548512"/>
-        <c:axId val="355549296"/>
+        <c:axId val="404146088"/>
+        <c:axId val="404148048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="355548512"/>
+        <c:axId val="404146088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2171,7 +1785,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355549296"/>
+        <c:crossAx val="404148048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2179,7 +1793,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="355549296"/>
+        <c:axId val="404148048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2199,7 +1813,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2230,7 +1844,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="355548512"/>
+        <c:crossAx val="404146088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3940,63 +3554,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr/>
-  <sheetViews>
-    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
-  </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</chartsheet>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9302238" cy="6083710"/>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noGrp="1"/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:absoluteAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>143712</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>94127</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>425822</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>179293</xdr:rowOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="15" name="Диаграмма 14"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4012,21 +3590,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>148758</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>27173</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>561974</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>437031</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>79561</xdr:rowOff>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="16" name="Диаграмма 15"/>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -4040,7 +3620,64 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="A2:C26" totalsRowShown="0">
+  <autoFilter ref="A2:C26"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="3" name="Score, ops/s"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Таблица2" displayName="Таблица2" ref="A29:D53" totalsRowShown="0">
+  <autoFilter ref="A29:D53"/>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Type"/>
+    <tableColumn id="2" name="Data"/>
+    <tableColumn id="3" name="Score, ops/s"/>
+    <tableColumn id="4" name="Size, byte"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4306,497 +3943,1507 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.140625" customWidth="1"/>
-    <col min="2" max="6" width="10.7109375" customWidth="1"/>
-    <col min="11" max="11" width="17.42578125" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>44125.803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>26889.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>8109.1949999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>1106.2429999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1355037.365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>131188.22899999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>13053.941000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>1314.4059999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>643419.05299999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>58549.832999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>5679.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>585.25300000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>2126800.2850000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>192386.13699999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>19297.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>1914.6959999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>295518.63099999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>43309.292000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>4426.4560000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22">
+        <v>454.233</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>94454.638000000006</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>10303.735000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>1075.3240000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26">
+        <v>99.111000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4" t="s">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D29" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>280898.85700000002</v>
+      </c>
+      <c r="D30">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>9</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>90599.548999999999</v>
+      </c>
+      <c r="D31">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>11388.52</v>
+      </c>
+      <c r="D32">
+        <v>9472</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>1132.0170000000001</v>
+      </c>
+      <c r="D33">
+        <v>85679</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1381171.9153199999</v>
-      </c>
-      <c r="C3" s="2">
-        <v>613133.64179200004</v>
-      </c>
-      <c r="D3" s="2">
-        <v>2103812.357934</v>
-      </c>
-      <c r="E3" s="2">
-        <v>285180.85155299999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>84202.850380999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>133009.748854</v>
-      </c>
-      <c r="C4" s="3">
-        <v>56655.594962000003</v>
-      </c>
-      <c r="D4" s="3">
-        <v>197068.268656</v>
-      </c>
-      <c r="E4" s="3">
-        <v>42368.114053999998</v>
-      </c>
-      <c r="F4" s="3">
-        <v>9984.2740849999991</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="C34">
+        <v>2194375.2489999998</v>
+      </c>
+      <c r="D34">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="5">
-        <v>13681.496856</v>
-      </c>
-      <c r="C5" s="5">
-        <v>5536.0221430000001</v>
-      </c>
-      <c r="D5" s="5">
-        <v>18202.313914999999</v>
-      </c>
-      <c r="E5" s="5">
-        <v>4425.9901579999996</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1067.473025</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="C35">
+        <v>235123.83499999999</v>
+      </c>
+      <c r="D35">
+        <v>1933</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="1">
-        <v>1326.4203090000001</v>
-      </c>
-      <c r="C6" s="1">
-        <v>565.90934000000004</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1851.9443699999999</v>
-      </c>
-      <c r="E6" s="1">
-        <v>427.71006999999997</v>
-      </c>
-      <c r="F6" s="1">
-        <v>98.716099</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="C36">
+        <v>23447.882000000001</v>
+      </c>
+      <c r="D36">
+        <v>19534</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="4" t="s">
+      <c r="C37">
+        <v>2258.9870000000001</v>
+      </c>
+      <c r="D37">
+        <v>195545</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>827027.38100000005</v>
+      </c>
+      <c r="D38">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39">
+        <v>79533.172999999995</v>
+      </c>
+      <c r="D39">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>7739.4480000000003</v>
+      </c>
+      <c r="D40">
+        <v>14840</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>11</v>
+      </c>
+      <c r="B41" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>778.27200000000005</v>
+      </c>
+      <c r="D41">
+        <v>148551</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>3649247.395</v>
+      </c>
+      <c r="D42">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>387100.99200000003</v>
+      </c>
+      <c r="D43">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44">
+        <v>35884.165000000001</v>
+      </c>
+      <c r="D44">
+        <v>8333</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>3471.5430000000001</v>
+      </c>
+      <c r="D45">
+        <v>83433</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>13</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>958473.647</v>
+      </c>
+      <c r="D46">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47">
+        <v>99890.64</v>
+      </c>
+      <c r="D47">
+        <v>3357</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>10270.849</v>
+      </c>
+      <c r="D48">
+        <v>33931</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <v>1020.13</v>
+      </c>
+      <c r="D49">
+        <v>339667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>150036.573</v>
+      </c>
+      <c r="D50">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>14662.841</v>
+      </c>
+      <c r="D51">
+        <v>2047</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>14</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>1383.9680000000001</v>
+      </c>
+      <c r="D52">
+        <v>22838</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <v>138.25</v>
+      </c>
+      <c r="D53">
+        <v>250949</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" customWidth="1"/>
+    <col min="13" max="13" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <f>LOG10(Лист1!$C3)</f>
+        <v>4.6446926217453584</v>
+      </c>
+      <c r="D2">
+        <f>LOG10(Лист1!$C30)</f>
+        <v>5.4485499720260613</v>
+      </c>
+      <c r="E2">
+        <f>LOG10(Лист1!D30)</f>
+        <v>2.858537197569639</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <f>LOG10(Лист1!$C4)</f>
+        <v>4.4295822422253908</v>
+      </c>
+      <c r="D3">
+        <f>LOG10(Лист1!$C31)</f>
+        <v>4.9571260357860973</v>
+      </c>
+      <c r="E3">
+        <f>LOG10(Лист1!D31)</f>
+        <v>3.2214142378423385</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <f t="array" ref="H3:K3">TRANSPOSE(C2:C5)</f>
+        <v>4.6446926217453584</v>
+      </c>
+      <c r="I3">
+        <v>4.4295822422253908</v>
+      </c>
+      <c r="J3">
+        <v>3.9089777439263091</v>
+      </c>
+      <c r="K3">
+        <v>3.0438505356191099</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>LOG10(Лист1!$C5)</f>
+        <v>3.9089777439263091</v>
+      </c>
+      <c r="D4">
+        <f>LOG10(Лист1!$C32)</f>
+        <v>4.0564672888204338</v>
+      </c>
+      <c r="E4">
+        <f>LOG10(Лист1!D32)</f>
+        <v>3.9764416893788446</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2239046.981842</v>
-      </c>
-      <c r="C10" s="2">
-        <v>780914.36071699997</v>
-      </c>
-      <c r="D10" s="2">
-        <v>3589003.8149529998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>926937.30683500005</v>
-      </c>
-      <c r="F10" s="2">
-        <v>149815.342902</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="H4">
+        <f t="array" ref="H4:K4">TRANSPOSE(C6:C9)</f>
+        <v>6.1319512709960922</v>
+      </c>
+      <c r="I4">
+        <v>5.1178948692646191</v>
+      </c>
+      <c r="J4">
+        <v>4.1157416454802016</v>
+      </c>
+      <c r="K4">
+        <v>3.1187295328988132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <f>LOG10(Лист1!$C6)</f>
+        <v>3.0438505356191099</v>
+      </c>
+      <c r="D5">
+        <f>LOG10(Лист1!$C33)</f>
+        <v>3.0538529488935557</v>
+      </c>
+      <c r="E5">
+        <f>LOG10(Лист1!D33)</f>
+        <v>4.9328743889977451</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <f t="array" ref="H5:K5">TRANSPOSE(C10:C13)</f>
+        <v>5.8084939171351895</v>
+      </c>
+      <c r="I5">
+        <v>4.7675256606845231</v>
+      </c>
+      <c r="J5">
+        <v>3.7543223384322464</v>
+      </c>
+      <c r="K5">
+        <v>2.767343648562778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="3">
-        <v>240648.72691299999</v>
-      </c>
-      <c r="C11" s="3">
-        <v>75814.369389</v>
-      </c>
-      <c r="D11" s="3">
-        <v>372093.01240299997</v>
-      </c>
-      <c r="E11" s="3">
-        <v>94760.778137000001</v>
-      </c>
-      <c r="F11" s="3">
-        <v>14706.768787000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="C6">
+        <f>LOG10(Лист1!$C7)</f>
+        <v>6.1319512709960922</v>
+      </c>
+      <c r="D6">
+        <f>LOG10(Лист1!$C34)</f>
+        <v>6.3413108960896629</v>
+      </c>
+      <c r="E6">
+        <f>LOG10(Лист1!D34)</f>
+        <v>2.2405492482825999</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6">
+        <f t="array" ref="H6:K6">TRANSPOSE(C14:C17)</f>
+        <v>6.3277267098393946</v>
+      </c>
+      <c r="I6">
+        <v>5.2841737743477655</v>
+      </c>
+      <c r="J6">
+        <v>4.2854904720198608</v>
+      </c>
+      <c r="K6">
+        <v>3.2820998300002455</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="5">
-        <v>22800.671493999998</v>
-      </c>
-      <c r="C12" s="5">
-        <v>7093.3257720000001</v>
-      </c>
-      <c r="D12" s="5">
-        <v>32866.594133999999</v>
-      </c>
-      <c r="E12" s="5">
-        <v>9591.4504670000006</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1391.3952159999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="C7">
+        <f>LOG10(Лист1!$C8)</f>
+        <v>5.1178948692646191</v>
+      </c>
+      <c r="D7">
+        <f>LOG10(Лист1!$C35)</f>
+        <v>5.3712966567059102</v>
+      </c>
+      <c r="E7">
+        <f>LOG10(Лист1!D35)</f>
+        <v>3.2862318540285531</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <f t="array" ref="H7:K7">TRANSPOSE(C18:C21)</f>
+        <v>5.4705848662170284</v>
+      </c>
+      <c r="I7">
+        <v>4.6365810841453019</v>
+      </c>
+      <c r="J7">
+        <v>3.6460561515891485</v>
+      </c>
+      <c r="K7">
+        <v>2.657278682497743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="1">
-        <v>2313.4986009999998</v>
-      </c>
-      <c r="C13" s="1">
-        <v>747.86604199999999</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3377.2068439999998</v>
-      </c>
-      <c r="E13" s="1">
-        <v>955.27454399999999</v>
-      </c>
-      <c r="F13" s="1">
-        <v>149.82173700000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="C8">
+        <f>LOG10(Лист1!$C9)</f>
+        <v>4.1157416454802016</v>
+      </c>
+      <c r="D8">
+        <f>LOG10(Лист1!$C36)</f>
+        <v>4.3701036198760539</v>
+      </c>
+      <c r="E8">
+        <f>LOG10(Лист1!D36)</f>
+        <v>4.2907911833827592</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8">
+        <f t="array" ref="H8:K8">TRANSPOSE(C22:C25)</f>
+        <v>4.9752232879153775</v>
+      </c>
+      <c r="I8">
+        <v>4.0129946806137902</v>
+      </c>
+      <c r="J8">
+        <v>3.031539338866986</v>
+      </c>
+      <c r="K8">
+        <v>1.9961218580593034</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <f>LOG10(Лист1!$C10)</f>
+        <v>3.1187295328988132</v>
+      </c>
+      <c r="D9">
+        <f>LOG10(Лист1!$C37)</f>
+        <v>3.3539137316532051</v>
+      </c>
+      <c r="E9">
+        <f>LOG10(Лист1!D37)</f>
+        <v>5.2912467157104404</v>
+      </c>
+      <c r="G9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <f>LOG10(Лист1!$C11)</f>
+        <v>5.8084939171351895</v>
+      </c>
+      <c r="D10">
+        <f>LOG10(Лист1!$C38)</f>
+        <v>5.9175198882954216</v>
+      </c>
+      <c r="E10">
+        <f>LOG10(Лист1!D38)</f>
+        <v>2.1238516409670858</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <f>LOG10(Лист1!$C12)</f>
+        <v>4.7675256606845231</v>
+      </c>
+      <c r="D11">
+        <f>LOG10(Лист1!$C39)</f>
+        <v>4.9005483091081379</v>
+      </c>
+      <c r="E11">
+        <f>LOG10(Лист1!D39)</f>
+        <v>3.1670217957902564</v>
+      </c>
+      <c r="G11" t="s">
         <v>9</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="H11">
+        <f t="array" ref="H11:K11">TRANSPOSE(D2:D5)</f>
+        <v>5.4485499720260613</v>
+      </c>
+      <c r="I11">
+        <v>4.9571260357860973</v>
+      </c>
+      <c r="J11">
+        <v>4.0564672888204338</v>
+      </c>
+      <c r="K11">
+        <v>3.0538529488935557</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <f>LOG10(Лист1!$C13)</f>
+        <v>3.7543223384322464</v>
+      </c>
+      <c r="D12">
+        <f>LOG10(Лист1!$C40)</f>
+        <v>3.8887099866385841</v>
+      </c>
+      <c r="E12">
+        <f>LOG10(Лист1!D40)</f>
+        <v>4.1714339009430086</v>
+      </c>
+      <c r="G12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B17" s="2">
-        <f>LOG10(B3)</f>
-        <v>6.1402477388451286</v>
-      </c>
-      <c r="C17" s="2">
-        <f t="shared" ref="C17:F17" si="0">LOG10(C3)</f>
-        <v>5.7875551459164889</v>
-      </c>
-      <c r="D17" s="2">
-        <f t="shared" si="0"/>
-        <v>6.3230070018562641</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="0"/>
-        <v>5.4551203614881949</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="0"/>
-        <v>4.9253267932073337</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="H12">
+        <f t="array" ref="H12:K12">TRANSPOSE(D6:D9)</f>
+        <v>6.3413108960896629</v>
+      </c>
+      <c r="I12">
+        <v>5.3712966567059102</v>
+      </c>
+      <c r="J12">
+        <v>4.3701036198760539</v>
+      </c>
+      <c r="K12">
+        <v>3.3539137316532051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13">
+        <f>LOG10(Лист1!$C14)</f>
+        <v>2.767343648562778</v>
+      </c>
+      <c r="D13">
+        <f>LOG10(Лист1!$C41)</f>
+        <v>2.8911314060568452</v>
+      </c>
+      <c r="E13">
+        <f>LOG10(Лист1!D41)</f>
+        <v>5.1718755796874456</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13">
+        <f t="array" ref="H13:K13">TRANSPOSE(D10:D13)</f>
+        <v>5.9175198882954216</v>
+      </c>
+      <c r="I13">
+        <v>4.9005483091081379</v>
+      </c>
+      <c r="J13">
+        <v>3.8887099866385841</v>
+      </c>
+      <c r="K13">
+        <v>2.8911314060568452</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="2">
-        <f t="shared" ref="B18:F18" si="1">LOG10(B4)</f>
-        <v>5.1238834734357619</v>
-      </c>
-      <c r="C18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.7532428045990622</v>
-      </c>
-      <c r="D18" s="2">
-        <f t="shared" si="1"/>
-        <v>5.2946167011084109</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="1"/>
-        <v>4.6270391325360345</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="1"/>
-        <v>3.9993164946109072</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="C14">
+        <f>LOG10(Лист1!$C15)</f>
+        <v>6.3277267098393946</v>
+      </c>
+      <c r="D14">
+        <f>LOG10(Лист1!$C42)</f>
+        <v>6.5622033066755083</v>
+      </c>
+      <c r="E14">
+        <f>LOG10(Лист1!D42)</f>
+        <v>1.8633228601204559</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <f t="array" ref="H14:K14">TRANSPOSE(D14:D17)</f>
+        <v>6.5622033066755083</v>
+      </c>
+      <c r="I14">
+        <v>5.5878242842602468</v>
+      </c>
+      <c r="J14">
+        <v>4.5549028449500684</v>
+      </c>
+      <c r="K14">
+        <v>3.5405225489810399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="B19" s="2">
-        <f t="shared" ref="B19:F19" si="2">LOG10(B5)</f>
-        <v>4.1361336149819152</v>
-      </c>
-      <c r="C19" s="2">
-        <f t="shared" si="2"/>
-        <v>3.7431978185447057</v>
-      </c>
-      <c r="D19" s="2">
-        <f t="shared" si="2"/>
-        <v>4.2601265998883511</v>
-      </c>
-      <c r="E19" s="2">
-        <f t="shared" si="2"/>
-        <v>3.6460104438589656</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="2"/>
-        <v>3.0283569092317988</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="C15">
+        <f>LOG10(Лист1!$C16)</f>
+        <v>5.2841737743477655</v>
+      </c>
+      <c r="D15">
+        <f>LOG10(Лист1!$C43)</f>
+        <v>5.5878242842602468</v>
+      </c>
+      <c r="E15">
+        <f>LOG10(Лист1!D43)</f>
+        <v>2.9153998352122699</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <f t="array" ref="H15:K15">TRANSPOSE(D18:D21)</f>
+        <v>5.981580176556994</v>
+      </c>
+      <c r="I15">
+        <v>4.999524795665474</v>
+      </c>
+      <c r="J15">
+        <v>4.0116063443543837</v>
+      </c>
+      <c r="K15">
+        <v>3.0086555194924287</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
         <v>3</v>
       </c>
-      <c r="B20" s="2">
-        <f t="shared" ref="B20:F20" si="3">LOG10(B6)</f>
-        <v>3.1226811627984103</v>
-      </c>
-      <c r="C20" s="2">
-        <f t="shared" si="3"/>
-        <v>2.7527468617688453</v>
-      </c>
-      <c r="D20" s="2">
-        <f t="shared" si="3"/>
-        <v>3.267627936900511</v>
-      </c>
-      <c r="E20" s="2">
-        <f t="shared" si="3"/>
-        <v>2.6311494754004849</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="3"/>
-        <v>1.9943879848552091</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
+      <c r="C16">
+        <f>LOG10(Лист1!$C17)</f>
+        <v>4.2854904720198608</v>
+      </c>
+      <c r="D16">
+        <f>LOG10(Лист1!$C44)</f>
+        <v>4.5549028449500684</v>
+      </c>
+      <c r="E16">
+        <f>LOG10(Лист1!D44)</f>
+        <v>3.9208013818256542</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16">
+        <f t="array" ref="H16:K16">TRANSPOSE(D22:D25)</f>
+        <v>5.1761971358293462</v>
+      </c>
+      <c r="I16">
+        <v>4.1662181252222226</v>
+      </c>
+      <c r="J16">
+        <v>3.1411260485137396</v>
+      </c>
+      <c r="K16">
+        <v>2.1406651399767358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <f>LOG10(Лист1!$C18)</f>
+        <v>3.2820998300002455</v>
+      </c>
+      <c r="D17">
+        <f>LOG10(Лист1!$C45)</f>
+        <v>3.5405225489810399</v>
+      </c>
+      <c r="E17">
+        <f>LOG10(Лист1!D45)</f>
+        <v>4.9213378597892818</v>
+      </c>
+      <c r="G17" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>LOG10(Лист1!$C19)</f>
+        <v>5.4705848662170284</v>
+      </c>
+      <c r="D18">
+        <f>LOG10(Лист1!$C46)</f>
+        <v>5.981580176556994</v>
+      </c>
+      <c r="E18">
+        <f>LOG10(Лист1!D46)</f>
+        <v>2.4941545940184429</v>
+      </c>
+      <c r="H18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>LOG10(Лист1!$C20)</f>
+        <v>4.6365810841453019</v>
+      </c>
+      <c r="D19">
+        <f>LOG10(Лист1!$C47)</f>
+        <v>4.999524795665474</v>
+      </c>
+      <c r="E19">
+        <f>LOG10(Лист1!D47)</f>
+        <v>3.5259513412480126</v>
+      </c>
+      <c r="G19" t="s">
         <v>9</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="H19">
+        <f t="array" ref="H19:K19">TRANSPOSE(E2:E5)</f>
+        <v>2.858537197569639</v>
+      </c>
+      <c r="I19">
+        <v>3.2214142378423385</v>
+      </c>
+      <c r="J19">
+        <v>3.9764416893788446</v>
+      </c>
+      <c r="K19">
+        <v>4.9328743889977451</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>LOG10(Лист1!$C21)</f>
+        <v>3.6460561515891485</v>
+      </c>
+      <c r="D20">
+        <f>LOG10(Лист1!$C48)</f>
+        <v>4.0116063443543837</v>
+      </c>
+      <c r="E20">
+        <f>LOG10(Лист1!D48)</f>
+        <v>4.5305966591759805</v>
+      </c>
+      <c r="G20" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="2">
-        <f>LOG10(B10)</f>
-        <v>6.3500632064600762</v>
-      </c>
-      <c r="C24" s="2">
-        <f t="shared" ref="C24:F24" si="4">LOG10(C10)</f>
-        <v>5.8926034094120752</v>
-      </c>
-      <c r="D24" s="2">
-        <f t="shared" si="4"/>
-        <v>6.5549739199693935</v>
-      </c>
-      <c r="E24" s="2">
-        <f t="shared" si="4"/>
-        <v>5.9670503617428281</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
-        <v>5.1755562926455587</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
+      <c r="H20">
+        <f t="array" ref="H20:K20">TRANSPOSE(E6:E9)</f>
+        <v>2.2405492482825999</v>
+      </c>
+      <c r="I20">
+        <v>3.2862318540285531</v>
+      </c>
+      <c r="J20">
+        <v>4.2907911833827592</v>
+      </c>
+      <c r="K20">
+        <v>5.2912467157104404</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>LOG10(Лист1!$C22)</f>
+        <v>2.657278682497743</v>
+      </c>
+      <c r="D21">
+        <f>LOG10(Лист1!$C49)</f>
+        <v>3.0086555194924287</v>
+      </c>
+      <c r="E21">
+        <f>LOG10(Лист1!D49)</f>
+        <v>5.5310533554832988</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21">
+        <f t="array" ref="H21:K21">TRANSPOSE(E10:E13)</f>
+        <v>2.1238516409670858</v>
+      </c>
+      <c r="I21">
+        <v>3.1670217957902564</v>
+      </c>
+      <c r="J21">
+        <v>4.1714339009430086</v>
+      </c>
+      <c r="K21">
+        <v>5.1718755796874456</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="2">
-        <f t="shared" ref="B25:F25" si="5">LOG10(B11)</f>
-        <v>5.3813835685019642</v>
-      </c>
-      <c r="C25" s="2">
-        <f t="shared" si="5"/>
-        <v>4.8797515269370173</v>
-      </c>
-      <c r="D25" s="2">
-        <f t="shared" si="5"/>
-        <v>5.5706515144092981</v>
-      </c>
-      <c r="E25" s="2">
-        <f t="shared" si="5"/>
-        <v>4.9766286183151616</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="5"/>
-        <v>4.1675172646973992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="8" t="s">
+      <c r="C22">
+        <f>LOG10(Лист1!$C23)</f>
+        <v>4.9752232879153775</v>
+      </c>
+      <c r="D22">
+        <f>LOG10(Лист1!$C50)</f>
+        <v>5.1761971358293462</v>
+      </c>
+      <c r="E22">
+        <f>LOG10(Лист1!D50)</f>
+        <v>2.2329961103921536</v>
+      </c>
+      <c r="G22" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22">
+        <f t="array" ref="H22:K22">TRANSPOSE(E14:E17)</f>
+        <v>1.8633228601204559</v>
+      </c>
+      <c r="I22">
+        <v>2.9153998352122699</v>
+      </c>
+      <c r="J22">
+        <v>3.9208013818256542</v>
+      </c>
+      <c r="K22">
+        <v>4.9213378597892818</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="2">
-        <f t="shared" ref="B26:F26" si="6">LOG10(B12)</f>
-        <v>4.3579476374322299</v>
-      </c>
-      <c r="C26" s="2">
-        <f t="shared" si="6"/>
-        <v>3.8508499059549797</v>
-      </c>
-      <c r="D26" s="2">
-        <f t="shared" si="6"/>
-        <v>4.5167547017863061</v>
-      </c>
-      <c r="E26" s="2">
-        <f t="shared" si="6"/>
-        <v>3.9818842883157437</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="6"/>
-        <v>3.1434505058001467</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="C23">
+        <f>LOG10(Лист1!$C24)</f>
+        <v>4.0129946806137902</v>
+      </c>
+      <c r="D23">
+        <f>LOG10(Лист1!$C51)</f>
+        <v>4.1662181252222226</v>
+      </c>
+      <c r="E23">
+        <f>LOG10(Лист1!D51)</f>
+        <v>3.3111178426625059</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <f t="array" ref="H23:K23">TRANSPOSE(E18:E21)</f>
+        <v>2.4941545940184429</v>
+      </c>
+      <c r="I23">
+        <v>3.5259513412480126</v>
+      </c>
+      <c r="J23">
+        <v>4.5305966591759805</v>
+      </c>
+      <c r="K23">
+        <v>5.5310533554832988</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" t="s">
         <v>3</v>
       </c>
-      <c r="B27" s="2">
-        <f t="shared" ref="B27:F27" si="7">LOG10(B13)</f>
-        <v>3.3642692412129791</v>
-      </c>
-      <c r="C27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.873823813866792</v>
-      </c>
-      <c r="D27" s="2">
-        <f t="shared" si="7"/>
-        <v>3.5285576607114582</v>
-      </c>
-      <c r="E27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.9801282048915398</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="7"/>
-        <v>2.1755748278781102</v>
+      <c r="C24">
+        <f>LOG10(Лист1!$C25)</f>
+        <v>3.031539338866986</v>
+      </c>
+      <c r="D24">
+        <f>LOG10(Лист1!$C52)</f>
+        <v>3.1411260485137396</v>
+      </c>
+      <c r="E24">
+        <f>LOG10(Лист1!D52)</f>
+        <v>4.3586580686195493</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24">
+        <f t="array" ref="H24:K24">TRANSPOSE(E22:E25)</f>
+        <v>2.2329961103921536</v>
+      </c>
+      <c r="I24">
+        <v>3.3111178426625059</v>
+      </c>
+      <c r="J24">
+        <v>4.3586580686195493</v>
+      </c>
+      <c r="K24">
+        <v>5.3995854694129859</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <f>LOG10(Лист1!$C26)</f>
+        <v>1.9961218580593034</v>
+      </c>
+      <c r="D25">
+        <f>LOG10(Лист1!$C53)</f>
+        <v>2.1406651399767358</v>
+      </c>
+      <c r="E25">
+        <f>LOG10(Лист1!D53)</f>
+        <v>5.3995854694129859</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A22:F22"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>